--- a/123.xlsx
+++ b/123.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Main\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Main\Desktop\Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2302,7 +2302,7 @@
   <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,8 +2438,8 @@
         <v>7</v>
       </c>
       <c r="K7" s="6">
-        <f>((((B4-C13)*B5)^2+((C4-C13)*C5)^2+((D4-C13)*D5)^2+((E4-C13)*E5)^2+((F4-C13)*F5)^2+((G4-C13)*G5)^2)/20)^(1/2)</f>
-        <v>0.96176920308356728</v>
+        <f>((((B4-K3)^2)+((C4-K3)^2)+((D4-K3)^2)+((E4-K3)^2)+((F4-K3)^2)+((G4-K3)^2))/20)^0.5</f>
+        <v>1.0733126291998991</v>
       </c>
       <c r="N7" s="9">
         <v>1</v>

--- a/123.xlsx
+++ b/123.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="T1" sheetId="1" r:id="rId1"/>
+    <sheet name="T2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$T$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'T1'!$A$1:$T$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Варианты</t>
   </si>
@@ -58,18 +59,37 @@
   <si>
     <t>Коэффицент вариации</t>
   </si>
+  <si>
+    <t>выб.ср.</t>
+  </si>
+  <si>
+    <t>станд.откл.</t>
+  </si>
+  <si>
+    <t>&lt;3,5&lt;</t>
+  </si>
+  <si>
+    <t>ответ:да</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -157,10 +177,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -173,9 +194,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -247,7 +277,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$A$4</c:f>
+              <c:f>'T1'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -268,7 +298,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$4:$G$4</c:f>
+              <c:f>'T1'!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -322,7 +352,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$A$3</c15:sqref>
+                          <c15:sqref>'T1'!$A$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -349,7 +379,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$B$3:$G$3</c15:sqref>
+                          <c15:sqref>'T1'!$B$3:$G$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -626,7 +656,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$A$4</c:f>
+              <c:f>'T1'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -649,7 +679,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$B$3:$G$3</c:f>
+              <c:f>'T1'!$B$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -676,7 +706,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$4:$G$4</c:f>
+              <c:f>'T1'!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2301,7 +2331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -2541,4 +2571,69 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1.79</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="13">
+        <f>C2-C3</f>
+        <v>1.6099999999999999</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="13">
+        <f>C2+C3</f>
+        <v>5.1899999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>